--- a/erd/database.xlsx
+++ b/erd/database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>테이블명</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>ADDR</t>
+  </si>
+  <si>
+    <t>department</t>
   </si>
 </sst>
 </file>
@@ -704,13 +707,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="67">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -725,7 +727,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -734,7 +735,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -743,7 +743,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -752,7 +751,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -767,7 +765,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -782,7 +779,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -797,7 +793,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -806,7 +801,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -817,7 +811,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -832,7 +825,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -845,7 +837,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -858,7 +849,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -869,7 +859,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -884,7 +873,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -899,7 +887,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -914,7 +901,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -929,7 +915,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -944,7 +929,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -955,7 +939,6 @@
         <color theme="0" tint="-0.349990"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -970,7 +953,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -985,7 +967,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -994,7 +975,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1005,7 +985,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1018,7 +997,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1031,7 +1009,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1046,7 +1023,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1061,7 +1037,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1076,7 +1051,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1089,7 +1063,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1102,7 +1075,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1113,7 +1085,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1122,7 +1093,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1133,7 +1103,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1148,7 +1117,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1163,7 +1131,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1178,7 +1145,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1193,7 +1159,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1208,7 +1173,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1223,7 +1187,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1238,7 +1201,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1253,7 +1215,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1262,7 +1223,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1271,7 +1231,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1286,7 +1245,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1301,7 +1259,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1316,7 +1273,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1331,7 +1287,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1346,7 +1301,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1359,7 +1313,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1372,7 +1325,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1385,7 +1337,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1396,7 +1347,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1405,16 +1355,6 @@
         <color theme="0" tint="-0.349990"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.349990"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1427,33 +1367,18 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1468,7 +1393,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1483,7 +1407,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1498,7 +1421,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1513,7 +1435,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1528,7 +1449,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1543,7 +1463,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1558,7 +1477,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1573,7 +1491,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1588,7 +1505,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1603,7 +1519,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1618,14 +1533,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1777,7 +1684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2018,9 +1925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2039,32 +1943,35 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="58" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="56" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2072,13 +1979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1">
@@ -2093,25 +1994,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="66" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="64" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2435,7 +2330,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2470,70 +2365,70 @@
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="64"/>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="108"/>
+      <c r="O1" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="82" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2665,7 +2560,7 @@
       </c>
       <c r="O5" s="71"/>
       <c r="P5" s="71"/>
-      <c r="Q5" s="109" t="s">
+      <c r="Q5" s="107" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2734,52 +2629,52 @@
       <c r="Q8" s="64"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="82" t="s">
+      <c r="L9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="82" t="s">
+      <c r="P9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="83" t="s">
+      <c r="Q9" s="82" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3108,14 +3003,14 @@
       <c r="F17" s="1"/>
       <c r="G17" s="37"/>
       <c r="H17" s="69"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="67">
@@ -3196,29 +3091,29 @@
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="84" t="s">
+      <c r="I20" s="26"/>
+      <c r="J20" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="85" t="s">
+      <c r="K20" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="85" t="s">
+      <c r="M20" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="85" t="s">
+      <c r="N20" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="85" t="s">
+      <c r="O20" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="85" t="s">
+      <c r="P20" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="86" t="s">
+      <c r="Q20" s="85" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3231,7 +3126,6 @@
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
-      <c r="I21" s="0"/>
       <c r="J21" s="54">
         <v>1</v>
       </c>
@@ -3256,14 +3150,6 @@
       <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="1:17" ht="17.250000">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
       <c r="J22" s="58">
         <v>2</v>
       </c>
@@ -3284,36 +3170,6 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="60"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="10">
